--- a/PLSstatic/PLSstatic_predicted_factors_matrix_7.xlsx
+++ b/PLSstatic/PLSstatic_predicted_factors_matrix_7.xlsx
@@ -443,58 +443,58 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.487945148329347</v>
+        <v>-1.487945148329342</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.284210759270137</v>
+        <v>-4.710020033330782</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.4841097597569226</v>
+        <v>-0.4841097597569224</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.5577785349157742</v>
+        <v>0.5586593429552213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8445102526334979</v>
+        <v>0.8445102526334978</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6774177731072873</v>
+        <v>-2.79945871415623</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.7452019343263057</v>
+        <v>0.7452019343263052</v>
       </c>
       <c r="B5" t="n">
-        <v>0.659295651481137</v>
+        <v>0.6458486690017327</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.8194715288099583</v>
+        <v>-0.8194715288099588</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.6034252835325273</v>
+        <v>-2.363486361546164</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.08620687001602598</v>
+        <v>-0.08620687001602649</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05401425128015401</v>
+        <v>-0.6280732378937954</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.7993982338251455</v>
+        <v>0.7993982338251456</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5685339188960441</v>
+        <v>0.8574661753142296</v>
       </c>
     </row>
   </sheetData>
